--- a/data/trans_orig/TIEMPO_DOMICILIO_CAT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO_CAT-Edad-trans_orig.xlsx
@@ -741,97 +741,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>346</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1536,97 +1536,97 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7344,97 +7344,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2940</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>3639</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8139,97 +8139,97 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2946</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>1856</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>2291</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11884,12 +11884,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -11899,12 +11899,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -13947,97 +13947,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1145</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1131</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14742,97 +14742,97 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1197</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>1269</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>1237</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -20550,97 +20550,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>756</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>738</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>750</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TIEMPO_DOMICILIO_CAT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO_CAT-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en País Vasco</t>
+          <t>Número de años residiendo en el domicilio por categorías en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7149,7 +7149,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en Andalucia</t>
+          <t>Número de años residiendo en el domicilio por categorías en Andalucia (tasa de respuesta: 97,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13752,7 +13752,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en C.Valenciana</t>
+          <t>Número de años residiendo en el domicilio por categorías en C.Valenciana (tasa de respuesta: 91,47%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20355,7 +20355,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en Barcelona</t>
+          <t>Número de años residiendo en el domicilio por categorías en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
